--- a/Prueba02.xlsx
+++ b/Prueba02.xlsx
@@ -331,10 +331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -344,8 +344,8 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <f>+A1+A2</f>
-        <v>2</v>
+        <f>+A1+A2+A3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -353,6 +353,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
